--- a/ExcelToCSV/excel/x_3304_星级城池配置表.xlsx
+++ b/ExcelToCSV/excel/x_3304_星级城池配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\xLuaFramework\ExcelToCSV\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00844E7E-DD93-4D01-85A8-EF47EE63B5ED}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C0E2E2-425D-4C47-9B0B-9DC235607EEF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6510" yWindow="0" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +90,10 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""""21,2"2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +526,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -566,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5">
@@ -591,16 +591,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5">
@@ -628,7 +628,7 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>1.2</v>

--- a/ExcelToCSV/excel/x_3304_星级城池配置表.xlsx
+++ b/ExcelToCSV/excel/x_3304_星级城池配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\xLuaFramework\ExcelToCSV\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C0E2E2-425D-4C47-9B0B-9DC235607EEF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4244FEC1-BDE1-4F98-95A4-1EC98FCFB00B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6510" yWindow="0" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11,12,13,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +90,11 @@
   </si>
   <si>
     <t>""""21,2"2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"asdf,sdf"w
+ef,"sdf"""we"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +527,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -566,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5">
@@ -591,27 +592,27 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="49.5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>1.1000000000000001</v>
@@ -628,7 +629,7 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>1.2</v>
